--- a/static/data/Campus.xlsx
+++ b/static/data/Campus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\database_project\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3490264-E7E6-4AB4-96CE-0B75B3F5C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC690F-796F-4015-9955-E5781CF0D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +411,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,7 +432,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -437,7 +443,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -448,7 +454,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -459,7 +465,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -470,7 +476,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
